--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.343026333333333</v>
+        <v>1.680263333333333</v>
       </c>
       <c r="H2">
-        <v>4.029078999999999</v>
+        <v>5.040789999999999</v>
       </c>
       <c r="I2">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="J2">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.25040933333333</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N2">
-        <v>81.751228</v>
+        <v>79.813328</v>
       </c>
       <c r="O2">
-        <v>0.455635031912059</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P2">
-        <v>0.4556350319120589</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q2">
-        <v>36.59801732877911</v>
+        <v>44.70246951656889</v>
       </c>
       <c r="R2">
-        <v>329.3821559590119</v>
+        <v>402.32222564912</v>
       </c>
       <c r="S2">
-        <v>0.06372402869996951</v>
+        <v>0.09971868811042334</v>
       </c>
       <c r="T2">
-        <v>0.06372402869996951</v>
+        <v>0.09971868811042332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.343026333333333</v>
+        <v>1.680263333333333</v>
       </c>
       <c r="H3">
-        <v>4.029078999999999</v>
+        <v>5.040789999999999</v>
       </c>
       <c r="I3">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="J3">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2346105337346748</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P3">
-        <v>0.2346105337346747</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q3">
-        <v>18.84464489726277</v>
+        <v>23.57657855596111</v>
       </c>
       <c r="R3">
-        <v>169.601804075365</v>
+        <v>212.18920700365</v>
       </c>
       <c r="S3">
-        <v>0.03281206961256902</v>
+        <v>0.0525927428430185</v>
       </c>
       <c r="T3">
-        <v>0.03281206961256901</v>
+        <v>0.05259274284301849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.343026333333333</v>
+        <v>1.680263333333333</v>
       </c>
       <c r="H4">
-        <v>4.029078999999999</v>
+        <v>5.040789999999999</v>
       </c>
       <c r="I4">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="J4">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3744183333333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N4">
-        <v>1.123255</v>
+        <v>0.606637</v>
       </c>
       <c r="O4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q4">
-        <v>0.5028536813494443</v>
+        <v>0.3397699692477777</v>
       </c>
       <c r="R4">
-        <v>4.525683132144999</v>
+        <v>3.05792972323</v>
       </c>
       <c r="S4">
-        <v>0.0008755627971409097</v>
+        <v>0.0007579316301563427</v>
       </c>
       <c r="T4">
-        <v>0.0008755627971409096</v>
+        <v>0.0007579316301563426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.343026333333333</v>
+        <v>1.680263333333333</v>
       </c>
       <c r="H5">
-        <v>4.029078999999999</v>
+        <v>5.040789999999999</v>
       </c>
       <c r="I5">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="J5">
-        <v>0.139857614618774</v>
+        <v>0.1738402465385692</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,43 +747,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.009092</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N5">
-        <v>54.027276</v>
+        <v>16.624701</v>
       </c>
       <c r="O5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q5">
-        <v>24.18668479542266</v>
+        <v>9.31129183931</v>
       </c>
       <c r="R5">
-        <v>217.680163158804</v>
+        <v>83.80162655379</v>
       </c>
       <c r="S5">
-        <v>0.04211356539384551</v>
+        <v>0.02077088395497106</v>
       </c>
       <c r="T5">
-        <v>0.04211356539384551</v>
+        <v>0.02077088395497106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.343026333333333</v>
+        <v>1.692291</v>
       </c>
       <c r="H6">
-        <v>4.029078999999999</v>
+        <v>5.076873</v>
       </c>
       <c r="I6">
-        <v>0.139857614618774</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="J6">
-        <v>0.139857614618774</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1421396666666666</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N6">
-        <v>0.4264189999999999</v>
+        <v>79.813328</v>
       </c>
       <c r="O6">
-        <v>0.00237661793499797</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P6">
-        <v>0.00237661793499797</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q6">
-        <v>0.1908973153445555</v>
+        <v>45.022458884816</v>
       </c>
       <c r="R6">
-        <v>1.718075838101</v>
+        <v>405.202129963344</v>
       </c>
       <c r="S6">
-        <v>0.0003323881152490125</v>
+        <v>0.1004324947603906</v>
       </c>
       <c r="T6">
-        <v>0.0003323881152490125</v>
+        <v>0.1004324947603906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>5.076873</v>
       </c>
       <c r="I7">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="J7">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.25040933333333</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N7">
-        <v>81.751228</v>
+        <v>42.094435</v>
       </c>
       <c r="O7">
-        <v>0.455635031912059</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P7">
-        <v>0.4556350319120589</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q7">
-        <v>46.115622461116</v>
+        <v>23.745344500195</v>
       </c>
       <c r="R7">
-        <v>415.040602150044</v>
+        <v>213.708100501755</v>
       </c>
       <c r="S7">
-        <v>0.08029596857199882</v>
+        <v>0.05296921239243528</v>
       </c>
       <c r="T7">
-        <v>0.08029596857199879</v>
+        <v>0.05296921239243528</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>5.076873</v>
       </c>
       <c r="I8">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="J8">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>14.03147833333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N8">
-        <v>42.094435</v>
+        <v>0.606637</v>
       </c>
       <c r="O8">
-        <v>0.2346105337346748</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P8">
-        <v>0.2346105337346747</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q8">
-        <v>23.745344500195</v>
+        <v>0.342202111789</v>
       </c>
       <c r="R8">
-        <v>213.708100501755</v>
+        <v>3.079819006101</v>
       </c>
       <c r="S8">
-        <v>0.04134510896663286</v>
+        <v>0.0007633570589107505</v>
       </c>
       <c r="T8">
-        <v>0.04134510896663284</v>
+        <v>0.0007633570589107505</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>5.076873</v>
       </c>
       <c r="I9">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="J9">
-        <v>0.1762286982961761</v>
+        <v>0.1750846303783744</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3744183333333333</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N9">
-        <v>1.123255</v>
+        <v>16.624701</v>
       </c>
       <c r="O9">
-        <v>0.00626038703382388</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P9">
-        <v>0.00626038703382388</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q9">
-        <v>0.633624775735</v>
+        <v>9.377943959997001</v>
       </c>
       <c r="R9">
-        <v>5.702622981615</v>
+        <v>84.40149563997301</v>
       </c>
       <c r="S9">
-        <v>0.001103259857801042</v>
+        <v>0.02091956616663773</v>
       </c>
       <c r="T9">
-        <v>0.001103259857801041</v>
+        <v>0.02091956616663774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.692291</v>
+        <v>0.8948033333333333</v>
       </c>
       <c r="H10">
-        <v>5.076873</v>
+        <v>2.68441</v>
       </c>
       <c r="I10">
-        <v>0.1762286982961761</v>
+        <v>0.09257646047754432</v>
       </c>
       <c r="J10">
-        <v>0.1762286982961761</v>
+        <v>0.09257646047754431</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,43 +1057,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.009092</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N10">
-        <v>54.027276</v>
+        <v>79.813328</v>
       </c>
       <c r="O10">
-        <v>0.3011174293844444</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P10">
-        <v>0.3011174293844444</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q10">
-        <v>30.476624309772</v>
+        <v>23.80574397960889</v>
       </c>
       <c r="R10">
-        <v>274.289618787948</v>
+        <v>214.25169581648</v>
       </c>
       <c r="S10">
-        <v>0.05306553261471138</v>
+        <v>0.05310394671281714</v>
       </c>
       <c r="T10">
-        <v>0.05306553261471136</v>
+        <v>0.05310394671281713</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.692291</v>
+        <v>0.8948033333333333</v>
       </c>
       <c r="H11">
-        <v>5.076873</v>
+        <v>2.68441</v>
       </c>
       <c r="I11">
-        <v>0.1762286982961761</v>
+        <v>0.09257646047754432</v>
       </c>
       <c r="J11">
-        <v>0.1762286982961761</v>
+        <v>0.09257646047754431</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1421396666666666</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N11">
-        <v>0.4264189999999999</v>
+        <v>42.094435</v>
       </c>
       <c r="O11">
-        <v>0.00237661793499797</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P11">
-        <v>0.00237661793499797</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q11">
-        <v>0.2405416786429999</v>
+        <v>12.55541358426111</v>
       </c>
       <c r="R11">
-        <v>2.164875107787</v>
+        <v>112.99872225835</v>
       </c>
       <c r="S11">
-        <v>0.0004188282850320384</v>
+        <v>0.02800761087353913</v>
       </c>
       <c r="T11">
-        <v>0.0004188282850320383</v>
+        <v>0.02800761087353912</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5919820000000001</v>
+        <v>0.8948033333333333</v>
       </c>
       <c r="H12">
-        <v>1.775946</v>
+        <v>2.68441</v>
       </c>
       <c r="I12">
-        <v>0.06164673645062637</v>
+        <v>0.09257646047754432</v>
       </c>
       <c r="J12">
-        <v>0.06164673645062636</v>
+        <v>0.09257646047754431</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>27.25040933333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N12">
-        <v>81.751228</v>
+        <v>0.606637</v>
       </c>
       <c r="O12">
-        <v>0.455635031912059</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P12">
-        <v>0.4556350319120589</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q12">
-        <v>16.13175181796534</v>
+        <v>0.1809402699077778</v>
       </c>
       <c r="R12">
-        <v>145.185766361688</v>
+        <v>1.62846242917</v>
       </c>
       <c r="S12">
-        <v>0.02808841272995543</v>
+        <v>0.0004036270599068772</v>
       </c>
       <c r="T12">
-        <v>0.02808841272995543</v>
+        <v>0.0004036270599068772</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5919820000000001</v>
+        <v>0.8948033333333333</v>
       </c>
       <c r="H13">
-        <v>1.775946</v>
+        <v>2.68441</v>
       </c>
       <c r="I13">
-        <v>0.06164673645062637</v>
+        <v>0.09257646047754432</v>
       </c>
       <c r="J13">
-        <v>0.06164673645062636</v>
+        <v>0.09257646047754431</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.03147833333333</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N13">
-        <v>42.094435</v>
+        <v>16.624701</v>
       </c>
       <c r="O13">
-        <v>0.2346105337346748</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P13">
-        <v>0.2346105337346747</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q13">
-        <v>8.306382606723334</v>
+        <v>4.958612623490001</v>
       </c>
       <c r="R13">
-        <v>74.75744346051</v>
+        <v>44.62751361141</v>
       </c>
       <c r="S13">
-        <v>0.01446297374168229</v>
+        <v>0.01106127583128118</v>
       </c>
       <c r="T13">
-        <v>0.01446297374168228</v>
+        <v>0.01106127583128118</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5919820000000001</v>
+        <v>0.4659513333333333</v>
       </c>
       <c r="H14">
-        <v>1.775946</v>
+        <v>1.397854</v>
       </c>
       <c r="I14">
-        <v>0.06164673645062637</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="J14">
-        <v>0.06164673645062636</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3744183333333333</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N14">
-        <v>1.123255</v>
+        <v>79.813328</v>
       </c>
       <c r="O14">
-        <v>0.00626038703382388</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P14">
-        <v>0.00626038703382388</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q14">
-        <v>0.2216489138033333</v>
+        <v>12.39637553312356</v>
       </c>
       <c r="R14">
-        <v>1.99484022423</v>
+        <v>111.567379798112</v>
       </c>
       <c r="S14">
-        <v>0.0003859324295530593</v>
+        <v>0.02765284152878968</v>
       </c>
       <c r="T14">
-        <v>0.0003859324295530592</v>
+        <v>0.02765284152878967</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5919820000000001</v>
+        <v>0.4659513333333333</v>
       </c>
       <c r="H15">
-        <v>1.775946</v>
+        <v>1.397854</v>
       </c>
       <c r="I15">
-        <v>0.06164673645062637</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="J15">
-        <v>0.06164673645062636</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,43 +1367,43 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.009092</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N15">
-        <v>54.027276</v>
+        <v>42.094435</v>
       </c>
       <c r="O15">
-        <v>0.3011174293844444</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P15">
-        <v>0.3011174293844444</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q15">
-        <v>10.661058300344</v>
+        <v>6.537986038054445</v>
       </c>
       <c r="R15">
-        <v>95.94952470309602</v>
+        <v>58.84187434249</v>
       </c>
       <c r="S15">
-        <v>0.01856290680995294</v>
+        <v>0.01458441552893193</v>
       </c>
       <c r="T15">
-        <v>0.01856290680995294</v>
+        <v>0.01458441552893193</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5919820000000001</v>
+        <v>0.4659513333333333</v>
       </c>
       <c r="H16">
-        <v>1.775946</v>
+        <v>1.397854</v>
       </c>
       <c r="I16">
-        <v>0.06164673645062637</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="J16">
-        <v>0.06164673645062636</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1421396666666666</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N16">
-        <v>0.4264189999999999</v>
+        <v>0.606637</v>
       </c>
       <c r="O16">
-        <v>0.00237661793499797</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P16">
-        <v>0.00237661793499797</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q16">
-        <v>0.08414412415266667</v>
+        <v>0.09422110633311111</v>
       </c>
       <c r="R16">
-        <v>0.757297117374</v>
+        <v>0.8479899569979999</v>
       </c>
       <c r="S16">
-        <v>0.0001465107394826517</v>
+        <v>0.0002101808964349962</v>
       </c>
       <c r="T16">
-        <v>0.0001465107394826517</v>
+        <v>0.0002101808964349961</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.491863</v>
+        <v>0.4659513333333333</v>
       </c>
       <c r="H17">
-        <v>4.475589</v>
+        <v>1.397854</v>
       </c>
       <c r="I17">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="J17">
-        <v>0.1553568946039589</v>
+        <v>0.04820738098292632</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.25040933333333</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N17">
-        <v>81.751228</v>
+        <v>16.624701</v>
       </c>
       <c r="O17">
-        <v>0.455635031912059</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P17">
-        <v>0.4556350319120589</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q17">
-        <v>40.65387741925467</v>
+        <v>2.582100532406</v>
       </c>
       <c r="R17">
-        <v>365.884896773292</v>
+        <v>23.238904791654</v>
       </c>
       <c r="S17">
-        <v>0.07078604363063319</v>
+        <v>0.005759943028769722</v>
       </c>
       <c r="T17">
-        <v>0.07078604363063318</v>
+        <v>0.005759943028769721</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.491863</v>
+        <v>3.720472333333333</v>
       </c>
       <c r="H18">
-        <v>4.475589</v>
+        <v>11.161417</v>
       </c>
       <c r="I18">
-        <v>0.1553568946039589</v>
+        <v>0.3849205150382734</v>
       </c>
       <c r="J18">
-        <v>0.1553568946039589</v>
+        <v>0.3849205150382733</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.03147833333333</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N18">
-        <v>42.094435</v>
+        <v>79.813328</v>
       </c>
       <c r="O18">
-        <v>0.2346105337346748</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P18">
-        <v>0.2346105337346747</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q18">
-        <v>20.93304336080167</v>
+        <v>98.98109288508623</v>
       </c>
       <c r="R18">
-        <v>188.397390247215</v>
+        <v>890.8298359657759</v>
       </c>
       <c r="S18">
-        <v>0.03644836396239642</v>
+        <v>0.2207990931368649</v>
       </c>
       <c r="T18">
-        <v>0.0364483639623964</v>
+        <v>0.2207990931368648</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.491863</v>
+        <v>3.720472333333333</v>
       </c>
       <c r="H19">
-        <v>4.475589</v>
+        <v>11.161417</v>
       </c>
       <c r="I19">
-        <v>0.1553568946039589</v>
+        <v>0.3849205150382734</v>
       </c>
       <c r="J19">
-        <v>0.1553568946039589</v>
+        <v>0.3849205150382733</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3744183333333333</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N19">
-        <v>1.123255</v>
+        <v>42.094435</v>
       </c>
       <c r="O19">
-        <v>0.00626038703382388</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P19">
-        <v>0.00626038703382388</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q19">
-        <v>0.5585808580216667</v>
+        <v>52.20372693493278</v>
       </c>
       <c r="R19">
-        <v>5.027227722195</v>
+        <v>469.833542414395</v>
       </c>
       <c r="S19">
-        <v>0.0009725942885937675</v>
+        <v>0.1164518922717858</v>
       </c>
       <c r="T19">
-        <v>0.0009725942885937672</v>
+        <v>0.1164518922717858</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,61 +1659,61 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.491863</v>
+        <v>3.720472333333333</v>
       </c>
       <c r="H20">
-        <v>4.475589</v>
+        <v>11.161417</v>
       </c>
       <c r="I20">
-        <v>0.1553568946039589</v>
+        <v>0.3849205150382734</v>
       </c>
       <c r="J20">
-        <v>0.1553568946039589</v>
+        <v>0.3849205150382733</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>18.009092</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N20">
-        <v>54.027276</v>
+        <v>0.606637</v>
       </c>
       <c r="O20">
-        <v>0.3011174293844444</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P20">
-        <v>0.3011174293844444</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q20">
-        <v>26.867098018396</v>
+        <v>0.7523253916254444</v>
       </c>
       <c r="R20">
-        <v>241.803882165564</v>
+        <v>6.770928524629</v>
       </c>
       <c r="S20">
-        <v>0.04678066874029417</v>
+        <v>0.001678227218682928</v>
       </c>
       <c r="T20">
-        <v>0.04678066874029416</v>
+        <v>0.001678227218682928</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.491863</v>
+        <v>3.720472333333333</v>
       </c>
       <c r="H21">
-        <v>4.475589</v>
+        <v>11.161417</v>
       </c>
       <c r="I21">
-        <v>0.1553568946039589</v>
+        <v>0.3849205150382734</v>
       </c>
       <c r="J21">
-        <v>0.1553568946039589</v>
+        <v>0.3849205150382733</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1421396666666666</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N21">
-        <v>0.4264189999999999</v>
+        <v>16.624701</v>
       </c>
       <c r="O21">
-        <v>0.00237661793499797</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P21">
-        <v>0.00237661793499797</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q21">
-        <v>0.2120529095323333</v>
+        <v>20.617246706813</v>
       </c>
       <c r="R21">
-        <v>1.908476185791</v>
+        <v>185.555220361317</v>
       </c>
       <c r="S21">
-        <v>0.0003692239820413581</v>
+        <v>0.04599130241093981</v>
       </c>
       <c r="T21">
-        <v>0.000369223982041358</v>
+        <v>0.04599130241093981</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.818578333333333</v>
+        <v>1.211778666666667</v>
       </c>
       <c r="H22">
-        <v>8.455735000000001</v>
+        <v>3.635336</v>
       </c>
       <c r="I22">
-        <v>0.293515944201759</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="J22">
-        <v>0.293515944201759</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.25040933333333</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N22">
-        <v>81.751228</v>
+        <v>79.813328</v>
       </c>
       <c r="O22">
-        <v>0.455635031912059</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P22">
-        <v>0.4556350319120589</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q22">
-        <v>76.80741332139777</v>
+        <v>32.23869606202312</v>
       </c>
       <c r="R22">
-        <v>691.26671989258</v>
+        <v>290.148264558208</v>
       </c>
       <c r="S22">
-        <v>0.1337361466030666</v>
+        <v>0.07191550069742916</v>
       </c>
       <c r="T22">
-        <v>0.1337361466030665</v>
+        <v>0.07191550069742915</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.818578333333333</v>
+        <v>1.211778666666667</v>
       </c>
       <c r="H23">
-        <v>8.455735000000001</v>
+        <v>3.635336</v>
       </c>
       <c r="I23">
-        <v>0.293515944201759</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="J23">
-        <v>0.293515944201759</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>42.094435</v>
       </c>
       <c r="O23">
-        <v>0.2346105337346748</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P23">
-        <v>0.2346105337346747</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q23">
-        <v>39.54882081496945</v>
+        <v>17.00304610612889</v>
       </c>
       <c r="R23">
-        <v>355.939387334725</v>
+        <v>153.02741495516</v>
       </c>
       <c r="S23">
-        <v>0.0688619323288117</v>
+        <v>0.0379290332261347</v>
       </c>
       <c r="T23">
-        <v>0.06886193232881169</v>
+        <v>0.03792903322613469</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.818578333333333</v>
+        <v>1.211778666666667</v>
       </c>
       <c r="H24">
-        <v>8.455735000000001</v>
+        <v>3.635336</v>
       </c>
       <c r="I24">
-        <v>0.293515944201759</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="J24">
-        <v>0.293515944201759</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.3744183333333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N24">
-        <v>1.123255</v>
+        <v>0.606637</v>
       </c>
       <c r="O24">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P24">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q24">
-        <v>1.055327401936111</v>
+        <v>0.2450365916702222</v>
       </c>
       <c r="R24">
-        <v>9.497946617425001</v>
+        <v>2.205329325032</v>
       </c>
       <c r="S24">
-        <v>0.001837523411301265</v>
+        <v>0.00054660800006468</v>
       </c>
       <c r="T24">
-        <v>0.001837523411301265</v>
+        <v>0.0005466080000646799</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.818578333333333</v>
+        <v>1.211778666666667</v>
       </c>
       <c r="H25">
-        <v>8.455735000000001</v>
+        <v>3.635336</v>
       </c>
       <c r="I25">
-        <v>0.293515944201759</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="J25">
-        <v>0.293515944201759</v>
+        <v>0.1253707665843124</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.009092</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N25">
-        <v>54.027276</v>
+        <v>16.624701</v>
       </c>
       <c r="O25">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P25">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q25">
-        <v>50.76003651420667</v>
+        <v>6.715152670504001</v>
       </c>
       <c r="R25">
-        <v>456.8403286278601</v>
+        <v>60.43637403453601</v>
       </c>
       <c r="S25">
-        <v>0.08838276660138168</v>
+        <v>0.01497962466068388</v>
       </c>
       <c r="T25">
-        <v>0.08838276660138168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.818578333333333</v>
-      </c>
-      <c r="H26">
-        <v>8.455735000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.293515944201759</v>
-      </c>
-      <c r="J26">
-        <v>0.293515944201759</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.1421396666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.4264189999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="P26">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="Q26">
-        <v>0.4006317847738888</v>
-      </c>
-      <c r="R26">
-        <v>3.605686062965</v>
-      </c>
-      <c r="S26">
-        <v>0.0006975752571977638</v>
-      </c>
-      <c r="T26">
-        <v>0.0006975752571977637</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1.665071</v>
-      </c>
-      <c r="H27">
-        <v>4.995213</v>
-      </c>
-      <c r="I27">
-        <v>0.1733941118287057</v>
-      </c>
-      <c r="J27">
-        <v>0.1733941118287057</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>27.25040933333333</v>
-      </c>
-      <c r="N27">
-        <v>81.751228</v>
-      </c>
-      <c r="O27">
-        <v>0.455635031912059</v>
-      </c>
-      <c r="P27">
-        <v>0.4556350319120589</v>
-      </c>
-      <c r="Q27">
-        <v>45.37386631906266</v>
-      </c>
-      <c r="R27">
-        <v>408.364796871564</v>
-      </c>
-      <c r="S27">
-        <v>0.07900443167643545</v>
-      </c>
-      <c r="T27">
-        <v>0.07900443167643544</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1.665071</v>
-      </c>
-      <c r="H28">
-        <v>4.995213</v>
-      </c>
-      <c r="I28">
-        <v>0.1733941118287057</v>
-      </c>
-      <c r="J28">
-        <v>0.1733941118287057</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>14.03147833333333</v>
-      </c>
-      <c r="N28">
-        <v>42.094435</v>
-      </c>
-      <c r="O28">
-        <v>0.2346105337346748</v>
-      </c>
-      <c r="P28">
-        <v>0.2346105337346747</v>
-      </c>
-      <c r="Q28">
-        <v>23.36340765996167</v>
-      </c>
-      <c r="R28">
-        <v>210.270668939655</v>
-      </c>
-      <c r="S28">
-        <v>0.04068008512258254</v>
-      </c>
-      <c r="T28">
-        <v>0.04068008512258253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1.665071</v>
-      </c>
-      <c r="H29">
-        <v>4.995213</v>
-      </c>
-      <c r="I29">
-        <v>0.1733941118287057</v>
-      </c>
-      <c r="J29">
-        <v>0.1733941118287057</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.3744183333333333</v>
-      </c>
-      <c r="N29">
-        <v>1.123255</v>
-      </c>
-      <c r="O29">
-        <v>0.00626038703382388</v>
-      </c>
-      <c r="P29">
-        <v>0.00626038703382388</v>
-      </c>
-      <c r="Q29">
-        <v>0.6234331087016666</v>
-      </c>
-      <c r="R29">
-        <v>5.610897978314999</v>
-      </c>
-      <c r="S29">
-        <v>0.001085514249433837</v>
-      </c>
-      <c r="T29">
-        <v>0.001085514249433837</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1.665071</v>
-      </c>
-      <c r="H30">
-        <v>4.995213</v>
-      </c>
-      <c r="I30">
-        <v>0.1733941118287057</v>
-      </c>
-      <c r="J30">
-        <v>0.1733941118287057</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>18.009092</v>
-      </c>
-      <c r="N30">
-        <v>54.027276</v>
-      </c>
-      <c r="O30">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="P30">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="Q30">
-        <v>29.986416825532</v>
-      </c>
-      <c r="R30">
-        <v>269.877751429788</v>
-      </c>
-      <c r="S30">
-        <v>0.05221198922425876</v>
-      </c>
-      <c r="T30">
-        <v>0.05221198922425875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1.665071</v>
-      </c>
-      <c r="H31">
-        <v>4.995213</v>
-      </c>
-      <c r="I31">
-        <v>0.1733941118287057</v>
-      </c>
-      <c r="J31">
-        <v>0.1733941118287057</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.1421396666666666</v>
-      </c>
-      <c r="N31">
-        <v>0.4264189999999999</v>
-      </c>
-      <c r="O31">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="P31">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="Q31">
-        <v>0.2366726369163333</v>
-      </c>
-      <c r="R31">
-        <v>2.130053732247</v>
-      </c>
-      <c r="S31">
-        <v>0.0004120915559951458</v>
-      </c>
-      <c r="T31">
-        <v>0.0004120915559951456</v>
+        <v>0.01497962466068388</v>
       </c>
     </row>
   </sheetData>
